--- a/Saludo.xlsx
+++ b/Saludo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolassuarez\Desktop\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolassuarez\Desktop\Malsonante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAF1D1-0E2D-4482-9D9A-372BCF6A07B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CE38EE-53DA-4849-A378-E635DB923D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gesto_Venezuela" sheetId="1" r:id="rId1"/>
+    <sheet name="Saludo_Venezuela" sheetId="2" r:id="rId2"/>
+    <sheet name="Malsonante_Venezuela" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -366,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +378,14 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -922,8 +933,12 @@
         <v>21</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1244,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059A9C41-56F6-4F98-919A-8C42EF71EB88}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
